--- a/trunk/stccg/Deck building/Dilemma skill matrix.xlsx
+++ b/trunk/stccg/Deck building/Dilemma skill matrix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="348" windowWidth="19812" windowHeight="11112" activeTab="3"/>
+    <workbookView xWindow="768" yWindow="348" windowWidth="19812" windowHeight="11112" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>CIVILIAN</t>
   </si>
@@ -298,6 +298,21 @@
   </si>
   <si>
     <t>[b]Comment[/b]</t>
+  </si>
+  <si>
+    <t>Fed Starter</t>
+  </si>
+  <si>
+    <t>Fer Starter</t>
+  </si>
+  <si>
+    <t>Borg Starter</t>
+  </si>
+  <si>
+    <t>Klingon Starter</t>
+  </si>
+  <si>
+    <t>Romulan Starter</t>
   </si>
 </sst>
 </file>
@@ -333,13 +348,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +659,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="A6:C46"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1671,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2109,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2121,12 +2139,27 @@
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8">
       <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2238,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>14</v>
       </c>
